--- a/numpy/quickstart.xlsx
+++ b/numpy/quickstart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\xlslim-code-samples\numpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA83DBB-87F0-438B-8AD0-E4172077C725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7470EB-58EC-4B4F-88D5-DE2F965D83EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -439,6 +439,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -465,28 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -810,7 +810,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -829,18 +831,18 @@
         <f t="array" ref="B1">_xll.WorkbookLocation()</f>
         <v>D:\github\xlslim-code-samples\numpy</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -850,16 +852,16 @@
         <f>B1&amp;"\quickstart.py"</f>
         <v>D:\github\xlslim-code-samples\numpy\quickstart.py</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -867,53 +869,53 @@
       </c>
       <c r="B3" s="3" t="str" cm="1">
         <f t="array" ref="B3">_xll.RegisterPyModule(B2)</f>
-        <v>Registered D:\github\xlslim-code-samples\numpy\quickstart.py</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
+        <v>Initialised the Python environment at C:\Users\russe\anaconda3\envs\py37. Registered D:\github\xlslim-code-samples\numpy\quickstart.py</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
@@ -939,14 +941,14 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="str" cm="1">
         <f t="array" ref="B10">_xll.create_random_array(,,B8,B9)</f>
-        <v>[quickstart.xlsx]quickstart$B$10@5</v>
-      </c>
-      <c r="C10" s="18" t="s">
+        <v>[quickstart.xlsx]quickstart$B$10@1</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
@@ -984,17 +986,17 @@
       <c r="B16" s="6">
         <v>4</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
@@ -1003,30 +1005,30 @@
       <c r="B17" s="6">
         <v>5</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="str" cm="1">
         <f t="array" ref="B18">_xll.echo_array(A13:B17)</f>
-        <v>[quickstart.xlsx]quickstart$B$18@5</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+        <v>[quickstart.xlsx]quickstart$B$18@1</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
@@ -1040,16 +1042,16 @@
       <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
@@ -1058,146 +1060,146 @@
       <c r="B22" s="6">
         <v>4</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="str" cm="1">
         <f t="array" ref="B23">_xll.invert_array_num_only(A21:B22)</f>
-        <v>[quickstart.xlsx]quickstart$B$23@5</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+        <v>[quickstart.xlsx]quickstart$B$23@1</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="7" cm="1">
         <f t="array" ref="A26:E30">_xll.ViewPyObject(B10)</f>
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B26" s="7">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C26" s="7">
+        <v>32</v>
+      </c>
+      <c r="D26" s="7">
+        <v>60</v>
+      </c>
+      <c r="E26" s="7">
         <v>65</v>
-      </c>
-      <c r="D26" s="7">
-        <v>4</v>
-      </c>
-      <c r="E26" s="7">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B27" s="7">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C27" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D27" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E27" s="7">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B28" s="7">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D28" s="7">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E28" s="7">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B29" s="7">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C29" s="7">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="D29" s="7">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="E29" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B30" s="7">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C30" s="7">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D30" s="7">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E30" s="7">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="102.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
@@ -1247,7 +1249,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="str" cm="1">
         <f t="array" ref="B41">_xll.echo_array(A36:B40)</f>
-        <v>[quickstart.xlsx]quickstart$B$41@5</v>
+        <v>[quickstart.xlsx]quickstart$B$41@1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -1274,7 +1276,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="str" cm="1">
         <f t="array" ref="B46">_xll.invert_array_num_only(A44:B45)</f>
-        <v>[quickstart.xlsx]quickstart$B$46@5</v>
+        <v>[quickstart.xlsx]quickstart$B$46@1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -1285,20 +1287,20 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="str" cm="1">
         <f t="array" ref="B49">_xll.invert_array_from_handle(B46)</f>
-        <v>[quickstart.xlsx]quickstart$B$49@5</v>
+        <v>[quickstart.xlsx]quickstart$B$49@1</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="146.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
@@ -1311,7 +1313,7 @@
       </c>
       <c r="B54" s="3" t="str" cm="1">
         <f t="array" ref="B54">_xll.add_two_arrays(A21:B22,A44:B45)</f>
-        <v>[quickstart.xlsx]quickstart$B$54@5</v>
+        <v>[quickstart.xlsx]quickstart$B$54@1</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
@@ -1320,7 +1322,7 @@
       </c>
       <c r="B55" s="3" t="str" cm="1">
         <f t="array" ref="B55">_xll.add_two_arrays_num_only(A21:B22,A44:B45)</f>
-        <v>[quickstart.xlsx]quickstart$B$55@5</v>
+        <v>[quickstart.xlsx]quickstart$B$55@1</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
@@ -1329,7 +1331,7 @@
       </c>
       <c r="B56" s="3" t="str" cm="1">
         <f t="array" ref="B56">_xll.add_two_arrays_from_handle(B23,B46)</f>
-        <v>[quickstart.xlsx]quickstart$B$56@5</v>
+        <v>[quickstart.xlsx]quickstart$B$56@1</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
@@ -1343,32 +1345,32 @@
       </c>
       <c r="B59" s="3" t="str" cm="1">
         <f t="array" ref="B59">_xll.add_arrays(_xll.CreateRange(B54,B56))</f>
-        <v>[quickstart.xlsx]quickstart$B$59@5</v>
-      </c>
-      <c r="C59" s="24" t="s">
+        <v>[quickstart.xlsx]quickstart$B$59@1</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D1:M4"/>
+    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="C16:K18"/>
     <mergeCell ref="C59:L59"/>
     <mergeCell ref="C21:J24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B33:G33"/>
-    <mergeCell ref="D1:M4"/>
-    <mergeCell ref="B5:H6"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1376,6 +1378,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056A28DAB99C48B469009752D21F8474A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3725108ba1e248dd961cbde49d36f75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58a034177a2e5a667d336d2ca3036430" ns3:_="">
     <xsd:import namespace="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
@@ -1507,22 +1524,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C9D94B-68A3-4C5A-8543-29DBB1AA8066}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1538,28 +1564,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/numpy/quickstart.xlsx
+++ b/numpy/quickstart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\xlslim-code-samples\numpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7470EB-58EC-4B4F-88D5-DE2F965D83EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A626B566-A45F-46C7-A5D8-441D0849C0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Workbook location</t>
   </si>
@@ -166,6 +166,24 @@
   <si>
     <t>This workbooks shows how to create and use numpy arrays.
 The workbook uses functions defined in quickstart.py</t>
+  </si>
+  <si>
+    <t>Numpy Vectors</t>
+  </si>
+  <si>
+    <t>View the vector</t>
+  </si>
+  <si>
+    <t>Numpy vectors are simply arrays of one dimension, however they can be represented in various ways</t>
+  </si>
+  <si>
+    <t>Create a column vector</t>
+  </si>
+  <si>
+    <t>Create a row vector</t>
+  </si>
+  <si>
+    <t>Create a simple vector</t>
   </si>
 </sst>
 </file>
@@ -440,27 +458,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="5"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -488,6 +485,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent5" xfId="2" builtinId="47"/>
@@ -511,9 +529,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -551,7 +569,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -657,7 +675,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -799,7 +817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -808,10 +826,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774E7E1C-D275-4DD4-9028-FA14541EA3B8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -831,18 +849,18 @@
         <f t="array" ref="B1">_xll.WorkbookLocation()</f>
         <v>D:\github\xlslim-code-samples\numpy</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -852,16 +870,16 @@
         <f>B1&amp;"\quickstart.py"</f>
         <v>D:\github\xlslim-code-samples\numpy\quickstart.py</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -869,53 +887,53 @@
       </c>
       <c r="B3" s="3" t="str" cm="1">
         <f t="array" ref="B3">_xll.RegisterPyModule(B2)</f>
-        <v>Initialised the Python environment at C:\Users\russe\anaconda3\envs\py37. Registered D:\github\xlslim-code-samples\numpy\quickstart.py</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
+        <v>Registered D:\github\xlslim-code-samples\numpy\quickstart.py</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
@@ -941,14 +959,14 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="str" cm="1">
         <f t="array" ref="B10">_xll.create_random_array(,,B8,B9)</f>
-        <v>[quickstart.xlsx]quickstart$B$10@1</v>
-      </c>
-      <c r="C10" s="11" t="s">
+        <v>[quickstart.xlsx]quickstart$B$10@2</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
@@ -986,17 +1004,17 @@
       <c r="B16" s="6">
         <v>4</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
@@ -1005,30 +1023,30 @@
       <c r="B17" s="6">
         <v>5</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="str" cm="1">
         <f t="array" ref="B18">_xll.echo_array(A13:B17)</f>
-        <v>[quickstart.xlsx]quickstart$B$18@1</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+        <v>[quickstart.xlsx]quickstart$B$18@2</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
@@ -1042,16 +1060,16 @@
       <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
@@ -1060,115 +1078,115 @@
       <c r="B22" s="6">
         <v>4</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:11" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="str" cm="1">
         <f t="array" ref="B23">_xll.invert_array_num_only(A21:B22)</f>
-        <v>[quickstart.xlsx]quickstart$B$23@1</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+        <v>[quickstart.xlsx]quickstart$B$23@2</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="7" cm="1">
         <f t="array" ref="A26:E30">_xll.ViewPyObject(B10)</f>
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="B26" s="7">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E26" s="7">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B27" s="7">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C27" s="7">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E27" s="7">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B28" s="7">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C28" s="7">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D28" s="7">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E28" s="7">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B29" s="7">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C29" s="7">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D29" s="7">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E29" s="7">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1176,30 +1194,30 @@
         <v>1</v>
       </c>
       <c r="B30" s="7">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C30" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E30" s="7">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="102.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
@@ -1249,7 +1267,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="str" cm="1">
         <f t="array" ref="B41">_xll.echo_array(A36:B40)</f>
-        <v>[quickstart.xlsx]quickstart$B$41@1</v>
+        <v>[quickstart.xlsx]quickstart$B$41@2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -1276,7 +1294,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="str" cm="1">
         <f t="array" ref="B46">_xll.invert_array_num_only(A44:B45)</f>
-        <v>[quickstart.xlsx]quickstart$B$46@1</v>
+        <v>[quickstart.xlsx]quickstart$B$46@2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -1287,20 +1305,20 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="str" cm="1">
         <f t="array" ref="B49">_xll.invert_array_from_handle(B46)</f>
-        <v>[quickstart.xlsx]quickstart$B$49@1</v>
+        <v>[quickstart.xlsx]quickstart$B$49@2</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="146.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
@@ -1313,7 +1331,7 @@
       </c>
       <c r="B54" s="3" t="str" cm="1">
         <f t="array" ref="B54">_xll.add_two_arrays(A21:B22,A44:B45)</f>
-        <v>[quickstart.xlsx]quickstart$B$54@1</v>
+        <v>[quickstart.xlsx]quickstart$B$54@2</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
@@ -1322,7 +1340,7 @@
       </c>
       <c r="B55" s="3" t="str" cm="1">
         <f t="array" ref="B55">_xll.add_two_arrays_num_only(A21:B22,A44:B45)</f>
-        <v>[quickstart.xlsx]quickstart$B$55@1</v>
+        <v>[quickstart.xlsx]quickstart$B$55@2</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
@@ -1331,7 +1349,7 @@
       </c>
       <c r="B56" s="3" t="str" cm="1">
         <f t="array" ref="B56">_xll.add_two_arrays_from_handle(B23,B46)</f>
-        <v>[quickstart.xlsx]quickstart$B$56@1</v>
+        <v>[quickstart.xlsx]quickstart$B$56@2</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
@@ -1345,32 +1363,126 @@
       </c>
       <c r="B59" s="3" t="str" cm="1">
         <f t="array" ref="B59">_xll.add_arrays(_xll.CreateRange(B54,B56))</f>
-        <v>[quickstart.xlsx]quickstart$B$59@1</v>
-      </c>
-      <c r="C59" s="13" t="s">
+        <v>[quickstart.xlsx]quickstart$B$59@2</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="3" t="str" cm="1">
+        <f t="array" ref="B62">_xll.create_random_column_vector(,,3)</f>
+        <v>[quickstart.xlsx]quickstart$B$62@2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="3" cm="1">
+        <f t="array" ref="B63:B65">_xll.ViewPyObject(B62)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B64" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="3" t="str" cm="1">
+        <f t="array" ref="B66">_xll.create_random_row_vector(,,3)</f>
+        <v>[quickstart.xlsx]quickstart$B$66@2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="3" cm="1">
+        <f t="array" ref="B67:D67">_xll.ViewPyObject(B66)</f>
+        <v>88</v>
+      </c>
+      <c r="C67" s="3">
+        <v>36</v>
+      </c>
+      <c r="D67" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="3" t="str" cm="1">
+        <f t="array" ref="B69">_xll.create_random_vector(,,3)</f>
+        <v>[quickstart.xlsx]quickstart$B$69@2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="3" cm="1">
+        <f t="array" ref="B70:D70">_xll.ViewPyObject(B69)</f>
+        <v>99</v>
+      </c>
+      <c r="C70" s="3">
+        <v>41</v>
+      </c>
+      <c r="D70" s="3">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="C59:L59"/>
+    <mergeCell ref="C21:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B61:K61"/>
     <mergeCell ref="D1:M4"/>
     <mergeCell ref="B5:H6"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="C16:K18"/>
-    <mergeCell ref="C59:L59"/>
-    <mergeCell ref="C21:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1378,21 +1490,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056A28DAB99C48B469009752D21F8474A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3725108ba1e248dd961cbde49d36f75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58a034177a2e5a667d336d2ca3036430" ns3:_="">
     <xsd:import namespace="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
@@ -1524,31 +1621,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C9D94B-68A3-4C5A-8543-29DBB1AA8066}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1564,4 +1652,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>